--- a/exfile/API 명세서ex.xlsx
+++ b/exfile/API 명세서ex.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\팀프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\janghojin\WebStudy\exfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0066856-CDC3-496A-A6DB-61AF5EAAB7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세서" sheetId="1" r:id="rId1"/>
@@ -185,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/user/{email}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Authorization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,11 +279,15 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/api/user/{email}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,6 +901,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,6 +961,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,107 +1018,47 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,104 +1339,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.09765625" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="27" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1477,7 +1476,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1504,52 +1503,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="58" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="2:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="2:7" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
@@ -1564,82 +1563,82 @@
         <v>34</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="54" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49" t="s">
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="72" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="40" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
@@ -1652,82 +1651,82 @@
       <c r="E12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B14" s="37" t="s">
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="40" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="53" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="54"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="40" t="s">
+      <c r="G16" s="62"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>22</v>
       </c>
@@ -1740,152 +1739,152 @@
       <c r="E19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="62"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="73" t="s">
-        <v>56</v>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="73" t="s">
-        <v>57</v>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="62" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-    </row>
-    <row r="26" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B26" s="37" t="s">
+      <c r="D24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="61" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="2:7" ht="86.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="2:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="2:7" ht="229.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B29" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="2:7" ht="229.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="70" t="s">
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" ht="116.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="44" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="2:7" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="71" t="s">
-        <v>54</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -1893,19 +1892,19 @@
       <c r="F33" s="45"/>
       <c r="G33" s="46"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" spans="2:7" ht="150.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="71" t="s">
-        <v>59</v>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="2:7" ht="150.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -1915,6 +1914,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B2:G2"/>
@@ -1931,29 +1953,6 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B33:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
